--- a/sources/case/CancelTransfer.xlsx
+++ b/sources/case/CancelTransfer.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8880"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8880" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>CaseID</t>
   </si>
@@ -51,18 +51,6 @@
   </si>
   <si>
     <t>application/json</t>
-  </si>
-  <si>
-    <t>user_name</t>
-  </si>
-  <si>
-    <t>灰太狼</t>
-  </si>
-  <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>测试10的调整</t>
   </si>
   <si>
     <t>status</t>
@@ -442,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -478,7 +466,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -487,10 +475,10 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
@@ -511,7 +499,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -525,15 +513,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -544,46 +532,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/sources/case/CancelTransfer.xlsx
+++ b/sources/case/CancelTransfer.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8880" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8880"/>
   </bookViews>
   <sheets>
     <sheet name="Base" sheetId="1" r:id="rId1"/>
@@ -44,46 +44,47 @@
     <t>Method</t>
   </si>
   <si>
+    <t>contentType</t>
+  </si>
+  <si>
+    <t>application/json</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>cancelled</t>
+  </si>
+  <si>
+    <t>CancelTransfer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CancelTransfer_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>process_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CancelTransfer_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://console.t.upvi.com/bapi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/automation/v1/approval/instances/{process_id}/op/cancel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>${GetInstances.items[0].uuid}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>POST</t>
-  </si>
-  <si>
-    <t>contentType</t>
-  </si>
-  <si>
-    <t>application/json</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>cancelled</t>
-  </si>
-  <si>
-    <t>CancelTransfer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CancelTransfer_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>process_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CancelTransfer_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://console.t.upvi.com/bapi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/automation/v1/approval/instances/{process_id}/op/cancel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>${GetInstances.items[0].uuid}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -430,8 +431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -461,27 +462,27 @@
         <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -513,15 +514,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -534,7 +535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
@@ -549,15 +550,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
